--- a/documents/AddictO-Relationships.xlsx
+++ b/documents/AddictO-Relationships.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BEFFF2-BE9D-4FBC-9826-F1851D83E716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B2ACE-3438-41F3-B627-833D815903D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,16 +117,16 @@
     <t>interacts with</t>
   </si>
   <si>
-    <t>can study</t>
-  </si>
-  <si>
-    <t>a can study b iff a is an agent and b is an entity where some a has a study investigator role in a research activity with the aim of gathering information about some b.</t>
-  </si>
-  <si>
-    <t>can use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a can use b iff some a and some b are participants in a behaviour in which a is an agent interacts with b in order to achieve a goal. </t>
+    <t>studies</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a uses b iff some a and some b are participants in a behaviour in which a is an agent interacts with b in order to achieve a goal. </t>
+  </si>
+  <si>
+    <t>a studies b iff a is some research activity with the aim of gathering information about some b.</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,12 +543,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -614,10 +614,10 @@
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
